--- a/docs/数据库定义.xlsx
+++ b/docs/数据库定义.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhacoal\Documents\作业\程序设计实践\project_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\python\小学期\device-rental-platform-backend\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>salt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,11 +186,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>group(str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可选项(null=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salt（废弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content(str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student_id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group(Group对象)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +221,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -251,11 +263,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,26 +555,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -567,174 +584,177 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数据库定义.xlsx
+++ b/docs/数据库定义.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\python\小学期\device-rental-platform-backend\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16320\Desktop\大作业\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/docs/数据库定义.xlsx
+++ b/docs/数据库定义.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>owner_id(外键)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>borrower_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>borrowed_time(utc ts)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>device_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commenter_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment_time(utc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>severity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,26 +118,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>device_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>status(magic number)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>applicant_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apply_time(utc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>handler_id(foreign)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>handle_time(utc)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,15 +158,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>student_id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group(Group对象)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>content(str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>student_id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group(Group对象)</t>
+    <t>owner(外键)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handler(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commenter(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrower(foreign)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device(foreign)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +243,22 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +299,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +596,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -596,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -615,146 +655,146 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
